--- a/biology/Médecine/Geriatric_nutritional_risk_index/Geriatric_nutritional_risk_index.xlsx
+++ b/biology/Médecine/Geriatric_nutritional_risk_index/Geriatric_nutritional_risk_index.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le GNRI (Geriatric Nutritional Risk Index[1]) est un indice utilisé en gériatrie. Il permet de prédire le risque de complications et la mortalité lié à un état de dénutrition. Il s'agit d'un indice fiable et facilement utilisable en gériatrie. Il prend en compte l'albuminémie et le rapport du poids actuel sur le poids idéal théorique selon la formule de Lorentz. Les bornes utilisées sont spécifiques d'une population gériatrique.
+Le GNRI (Geriatric Nutritional Risk Index) est un indice utilisé en gériatrie. Il permet de prédire le risque de complications et la mortalité lié à un état de dénutrition. Il s'agit d'un indice fiable et facilement utilisable en gériatrie. Il prend en compte l'albuminémie et le rapport du poids actuel sur le poids idéal théorique selon la formule de Lorentz. Les bornes utilisées sont spécifiques d'une population gériatrique.
 GNRI = [1,489 x albuminémie (g/l)] + [41,7 x poids actuel/poids idéal théorique*] 
 (* quand le rapport est &gt;1, la valeur 1 est retenue)
 GNRI &lt; 82 : risque majeur
@@ -517,7 +529,9 @@
           <t>Formule de Lorentz</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Femme : poids idéal (kg) = taille – 100 – [(taille – 150)/2,5]
 Homme : poids idéal = taille – 100 – [(taille – 150)/4]
